--- a/etlapok/forditotabla.xlsx
+++ b/etlapok/forditotabla.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Magyar</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">Koreai</t>
   </si>
   <si>
+    <t xml:space="preserve">Képfájl neve</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZÖLDSÉGLEVES</t>
   </si>
   <si>
@@ -57,6 +60,36 @@
   </si>
   <si>
     <t xml:space="preserve">치즈 갈루스 카</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARHONYALEVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TARHONYA SOUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">суп тархонія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타로 냐 수프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarhonyaleves.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCIA RAKOTT BURGONYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRENCH FRIED POTATOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФРАНЦУЗЬКИЙ Смажений картопля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">감자 튀김</t>
+  </si>
+  <si>
+    <t xml:space="preserve">francia_rakott_burgonya.jpeg</t>
   </si>
 </sst>
 </file>
@@ -66,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -87,6 +120,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,12 +175,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,19 +205,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,36 +234,72 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/etlapok/forditotabla.xlsx
+++ b/etlapok/forditotabla.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Magyar</t>
   </si>
@@ -90,6 +90,54 @@
   </si>
   <si>
     <t xml:space="preserve">francia_rakott_burgonya.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASZALT SZILVÁS GESZTENYEKRÉMLEVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRIED PLUM CHESTNUT CREAM SOUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРЕМ-КРЕМ із сушеної сливи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">말린 플럼 체스트넛 크림 스프</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÁRGABORSÓ FŐZELÉK, SERTÉSPÖRKÖLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YELLOW PEAS COOKED, PORK ROAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖОВТИЙ ГОРОХ ВАРЕНИЙ, СВИНЯ СМЯЖИНА</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">노란색 완두콩 요리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">돼지 고기 로스트</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -205,10 +253,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -276,7 +324,7 @@
       <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
@@ -293,11 +341,39 @@
       <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/etlapok/forditotabla.xlsx
+++ b/etlapok/forditotabla.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t xml:space="preserve">Magyar</t>
   </si>
@@ -118,6 +118,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">노란색 완두콩 요리</t>
     </r>
@@ -135,6 +136,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">돼지 고기 로스트</t>
     </r>
@@ -147,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -174,11 +176,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,16 +220,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,7 +249,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,11 +351,14 @@
       <c r="C6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
@@ -372,8 +368,11 @@
       <c r="C7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
